--- a/Deck_List/UA_デッキリスト_nik.xlsx
+++ b/Deck_List/UA_デッキリスト_nik.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatematsukenichirou/Desktop/my_page/MyGame/ヤムチャゲーム/Deck_List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F5332C-A5B1-7940-887F-F39CF64F552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F11F6A-5E62-254B-BA5A-9BA2D29DF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6940" yWindow="500" windowWidth="21860" windowHeight="16260" xr2:uid="{FDDADAB1-2128-2241-A08A-DBF39B67B523}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進撃の巨人(やるんだな！今…ここで！)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>進撃の巨人(獣の巨人)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -354,6 +350,9 @@
       <t xml:space="preserve">イエ </t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進撃の巨人(やるんだな!今...ここで!)</t>
   </si>
 </sst>
 </file>
@@ -764,7 +763,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -808,7 +807,7 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -816,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -825,7 +824,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -836,13 +835,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -859,7 +858,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -876,7 +875,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -893,7 +892,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -904,13 +903,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -921,13 +920,13 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -938,13 +937,13 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -961,7 +960,7 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -975,15 +974,15 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -995,7 +994,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1009,7 +1008,7 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1023,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1055,7 +1054,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -1063,7 +1062,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:4">
